--- a/00.Cronograma.2021.xlsx
+++ b/00.Cronograma.2021.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="lucas"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Teóricas" sheetId="1" r:id="rId4"/>
@@ -14,10 +14,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1633297031" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1633297031" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1633297031" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1633297031"/>
+      <pm:revision xmlns:pm="smNativeData" day="1633724892" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1633724892" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1633724892" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1633724892"/>
     </ext>
   </extLst>
 </workbook>
@@ -351,7 +351,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1633297031" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1633724892" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -366,7 +366,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1633297031" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1633724892" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -381,7 +381,7 @@
       <sz val="24"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1633297031" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1633724892" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="480" lang="default"/>
             <pm:cs face="Basic Roman" sz="480" lang="default"/>
             <pm:ea face="Basic Roman" sz="480" lang="default"/>
@@ -396,7 +396,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1633297031" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1633724892" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -412,7 +412,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1633297031" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1633724892" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -428,7 +428,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1633297031" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1633724892" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -444,7 +444,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1633297031" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1633724892" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -459,7 +459,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1633297031" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1633724892" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -475,7 +475,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1633297031" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1633724892" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -484,7 +484,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,7 +497,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="004472C4"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="004472C4"/>
           </ext>
         </extLst>
       </patternFill>
@@ -508,7 +508,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="004472C4"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="004472C4"/>
           </ext>
         </extLst>
       </patternFill>
@@ -519,7 +519,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="004472C4"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="004472C4"/>
           </ext>
         </extLst>
       </patternFill>
@@ -530,7 +530,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="004472C4"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="004472C4"/>
           </ext>
         </extLst>
       </patternFill>
@@ -541,7 +541,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00203764"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00203764"/>
           </ext>
         </extLst>
       </patternFill>
@@ -576,7 +576,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
           </ext>
         </extLst>
       </patternFill>
@@ -593,7 +593,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
           </ext>
         </extLst>
       </patternFill>
@@ -604,7 +604,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
           </ext>
         </extLst>
       </patternFill>
@@ -615,7 +615,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
           </ext>
         </extLst>
       </patternFill>
@@ -626,7 +626,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
           </ext>
         </extLst>
       </patternFill>
@@ -637,7 +637,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00B6D7A8" bgLvl="0" bgClr="00B6D7A8"/>
           </ext>
         </extLst>
       </patternFill>
@@ -650,11 +650,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
+        <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="004472C4"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -668,7 +679,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00D9E1F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00D9E1F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -679,7 +690,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00D9E1F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00D9E1F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -690,7 +701,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00D9E1F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00D9E1F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -701,7 +712,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00999999" bgLvl="0" bgClr="00999999"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00999999" bgLvl="0" bgClr="00999999"/>
           </ext>
         </extLst>
       </patternFill>
@@ -712,7 +723,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00999999" bgLvl="0" bgClr="00999999"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00999999" bgLvl="0" bgClr="00999999"/>
           </ext>
         </extLst>
       </patternFill>
@@ -723,7 +734,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="008EA9DB"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="008EA9DB"/>
           </ext>
         </extLst>
       </patternFill>
@@ -734,7 +745,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="008EA9DB"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="008EA9DB"/>
           </ext>
         </extLst>
       </patternFill>
@@ -745,7 +756,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="008EA9DB"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="008EA9DB"/>
           </ext>
         </extLst>
       </patternFill>
@@ -756,7 +767,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="008EA9DB"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="008EA9DB"/>
           </ext>
         </extLst>
       </patternFill>
@@ -767,7 +778,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="008EA9DB"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="008EA9DB"/>
           </ext>
         </extLst>
       </patternFill>
@@ -781,7 +792,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00D9E1F2"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00D9E1F2"/>
           </ext>
         </extLst>
       </patternFill>
@@ -792,7 +803,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00A9D08E" bgLvl="0" bgClr="00A9D08E"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00A9D08E" bgLvl="0" bgClr="00A9D08E"/>
           </ext>
         </extLst>
       </patternFill>
@@ -803,7 +814,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00A9D08E" bgLvl="0" bgClr="00A9D08E"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00A9D08E" bgLvl="0" bgClr="00A9D08E"/>
           </ext>
         </extLst>
       </patternFill>
@@ -814,7 +825,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00A9D08E" bgLvl="0" bgClr="00A9D08E"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00A9D08E" bgLvl="0" bgClr="00A9D08E"/>
           </ext>
         </extLst>
       </patternFill>
@@ -825,7 +836,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00A9D08E" bgLvl="0" bgClr="00A9D08E"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00A9D08E" bgLvl="0" bgClr="00A9D08E"/>
           </ext>
         </extLst>
       </patternFill>
@@ -836,7 +847,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -847,7 +858,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00FFE599" bgLvl="0" bgClr="00FFE599"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00FFE599" bgLvl="0" bgClr="00FFE599"/>
           </ext>
         </extLst>
       </patternFill>
@@ -858,7 +869,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00FFE599" bgLvl="0" bgClr="00FFE599"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00FFE599" bgLvl="0" bgClr="00FFE599"/>
           </ext>
         </extLst>
       </patternFill>
@@ -869,7 +880,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00FFE599" bgLvl="0" bgClr="00FFE599"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00FFE599" bgLvl="0" bgClr="00FFE599"/>
           </ext>
         </extLst>
       </patternFill>
@@ -880,35 +891,112 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00FFE599" bgLvl="0" bgClr="00FFE599"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="00FFE599" bgLvl="0" bgClr="00FFE599"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
+        <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="004472C4"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
+        <fgColor rgb="FF9EFF9E"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1633297031" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="38" fgClr="0000FF00" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EFF9E"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="38" fgClr="0000FF00" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EFF9E"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="38" fgClr="0000FF00" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EFF9E"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="38" fgClr="0000FF00" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EFF9E"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="38" fgClr="0000FF00" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EFF9E"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="38" fgClr="0000FF00" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EFF9E"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="38" fgClr="0000FF00" bgLvl="62" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EFF9E"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1633724892" type="1" fgLvl="38" fgClr="0000FF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="57">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -924,7 +1012,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031"/>
+          <pm:border xmlns:pm="smNativeData" id="1633724892"/>
         </ext>
       </extLst>
     </border>
@@ -943,7 +1031,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -967,7 +1055,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -990,7 +1078,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1012,7 +1100,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1035,7 +1123,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1059,7 +1147,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1081,7 +1169,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1102,7 +1190,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1123,7 +1211,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1147,7 +1235,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1170,7 +1258,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1192,7 +1280,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1213,7 +1301,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1235,7 +1323,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1259,7 +1347,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1282,7 +1370,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1304,7 +1392,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="50" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="50" dist="20" width2="20" rgb="000000"/>
@@ -1328,7 +1416,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="50" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1351,7 +1439,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="50" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1375,7 +1463,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="50" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1397,7 +1485,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="50" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="50" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="50" dist="20" width2="20" rgb="000000"/>
@@ -1420,7 +1508,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1441,7 +1529,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1458,81 +1546,12 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1548,18 +1567,15 @@
       <right style="none">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="none">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="none">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
-            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
-          </pm:border>
+          <pm:border xmlns:pm="smNativeData" id="1633724892"/>
         </ext>
       </extLst>
     </border>
@@ -1578,7 +1594,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1590,7 +1606,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="none">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -1601,7 +1617,99 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1625,7 +1733,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1648,7 +1756,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1672,7 +1780,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1694,7 +1802,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1717,7 +1825,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1741,7 +1849,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1763,7 +1871,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1786,7 +1894,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1807,7 +1915,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1829,7 +1937,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031"/>
+          <pm:border xmlns:pm="smNativeData" id="1633724892"/>
         </ext>
       </extLst>
     </border>
@@ -1848,7 +1956,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1869,7 +1977,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1893,7 +2001,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1916,7 +2024,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1940,7 +2048,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1962,7 +2070,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1980,13 +2088,118 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="none">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1633724892"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1995,7 +2208,7 @@
       </extLst>
     </border>
     <border>
-      <left style="none">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="none">
@@ -2004,12 +2217,58 @@
       <top style="none">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1633297031"/>
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1633724892">
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
         </ext>
       </extLst>
     </border>
@@ -2017,7 +2276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2189,14 +2448,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="48" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="48" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="25" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2205,49 +2464,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="28" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="30" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="31" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="32" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2256,10 +2512,13 @@
     <xf numFmtId="0" fontId="8" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="36" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="37" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2268,49 +2527,97 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="39" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="40" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="40" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="44" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="45" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="45" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="46" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="47" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="48" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="49" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1633297031" l="72" r="72" t="72" b="72" textRotation="0"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1633724892" l="72" r="72" t="72" b="72" textRotation="0"/>
         </ext>
       </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="50" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="51" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="52" borderId="51" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="50" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="53" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="53" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="51" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="51" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="53" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="53" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="54" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="55" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="54" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="57" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2319,10 +2626,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1633297031" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1633724892" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1633297031" count="8">
+      <pm:colors xmlns:pm="smNativeData" id="1633724892" count="8">
         <pm:color name="Color 24" rgb="4472C4"/>
         <pm:color name="Color 25" rgb="203764"/>
         <pm:color name="Color 26" rgb="B6D7A8"/>
@@ -2595,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N997"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="11" defaultColWidth="12.598361" defaultRowHeight="15" customHeight="1"/>
@@ -2610,7 +2917,7 @@
     <col min="12" max="13" width="9.401639" hidden="1" customWidth="1">
       <extLst>
         <ext uri="smNativeData">
-          <pm:columnDef xmlns:pm="smNativeData" id="1633297031" min="12" max="13" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:columnDef xmlns:pm="smNativeData" id="1633724892" min="12" max="13" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </col>
@@ -2684,23 +2991,23 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="108">
         <f>VLOOKUP(A4,$M$4:$N$20,2,0)</f>
         <v>44429</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="17" t="n">
+      <c r="E4" s="111" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="18" t="n">
+      <c r="F4" s="112" t="n">
         <v>0.252083333333333259</v>
       </c>
       <c r="G4" s="19"/>
@@ -2727,23 +3034,23 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="114">
         <f>VLOOKUP(A5,$M$4:$N$20,2,0)</f>
         <v>44429</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="28" t="n">
+      <c r="E5" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="29" t="n">
+      <c r="F5" s="118" t="n">
         <v>0.242361111111111116</v>
       </c>
       <c r="G5" s="4"/>
@@ -2770,23 +3077,23 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="114">
         <f>VLOOKUP(A6,$M$4:$N$20,2,0)</f>
         <v>44429</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="28" t="n">
+      <c r="E6" s="117" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="29" t="n">
+      <c r="F6" s="118" t="n">
         <v>0.194444444444444446</v>
       </c>
       <c r="G6" s="4"/>
@@ -2813,23 +3120,23 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="114">
         <f>VLOOKUP(A7,$M$4:$N$20,2,0)</f>
         <v>44429</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="28" t="n">
+      <c r="E7" s="117" t="n">
         <v>4</v>
       </c>
-      <c r="F7" s="29" t="n">
+      <c r="F7" s="118" t="n">
         <v>0.263888888888888884</v>
       </c>
       <c r="G7" s="4"/>
@@ -2856,23 +3163,23 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="114">
         <f>VLOOKUP(A8,$M$4:$N$20,2,0)</f>
         <v>44429</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28" t="n">
+      <c r="E8" s="117" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="29" t="n">
+      <c r="F8" s="118" t="n">
         <v>0.388194444444444464</v>
       </c>
       <c r="G8" s="4"/>
@@ -2899,23 +3206,23 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="114">
         <f>VLOOKUP(A9,$M$4:$N$20,2,0)</f>
         <v>44429</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="28" t="n">
+      <c r="E9" s="117" t="n">
         <v>6</v>
       </c>
-      <c r="F9" s="29" t="n">
+      <c r="F9" s="118" t="n">
         <v>0.274305555555555536</v>
       </c>
       <c r="G9" s="4"/>
@@ -2942,23 +3249,23 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="114">
         <f>VLOOKUP(A10,$M$4:$N$20,2,0)</f>
         <v>44429</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="28" t="n">
+      <c r="E10" s="117" t="n">
         <v>7</v>
       </c>
-      <c r="F10" s="29" t="n">
+      <c r="F10" s="118" t="n">
         <v>0.321527777777777812</v>
       </c>
       <c r="G10" s="4"/>
@@ -2985,23 +3292,23 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="114">
         <f>VLOOKUP(A11,$M$4:$N$20,2,0)</f>
         <v>44429</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="28" t="n">
+      <c r="E11" s="117" t="n">
         <v>8</v>
       </c>
-      <c r="F11" s="29" t="n">
+      <c r="F11" s="118" t="n">
         <v>0.343055555555555447</v>
       </c>
       <c r="G11" s="4"/>
@@ -3026,23 +3333,23 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="114">
         <f>VLOOKUP(A12,$M$4:$N$20,2,0)</f>
         <v>44429</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="28" t="n">
+      <c r="E12" s="117" t="n">
         <v>9</v>
       </c>
-      <c r="F12" s="29" t="n">
+      <c r="F12" s="118" t="n">
         <v>0.234027777777777768</v>
       </c>
       <c r="G12" s="4"/>
@@ -3069,24 +3376,24 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="120">
         <f>VLOOKUP(A13,$M$4:$N$20,2,0)</f>
         <v>44429</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="35" t="n">
+      <c r="E13" s="123" t="n">
         <v>10</v>
       </c>
-      <c r="F13" s="36" t="n">
-        <v>0.331944444444444375</v>
+      <c r="F13" s="124" t="n">
+        <v>0.33194444444444442</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="20" t="s">
@@ -3112,23 +3419,23 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="108">
         <f>VLOOKUP(A14,$M$4:$N$20,2,0)</f>
         <v>44436</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="17" t="n">
+      <c r="E14" s="111" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="18" t="n">
+      <c r="F14" s="112" t="n">
         <v>0.35138888888888884</v>
       </c>
       <c r="G14" s="4"/>
@@ -3155,23 +3462,23 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="114">
         <f>VLOOKUP(A15,$M$4:$N$20,2,0)</f>
         <v>44436</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="28" t="n">
+      <c r="E15" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="F15" s="29" t="n">
+      <c r="F15" s="118" t="n">
         <v>0.172916666666666696</v>
       </c>
       <c r="G15" s="4"/>
@@ -3198,23 +3505,23 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="114">
         <f>VLOOKUP(A16,$M$4:$N$20,2,0)</f>
         <v>44436</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="28" t="n">
+      <c r="E16" s="117" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="29" t="n">
+      <c r="F16" s="118" t="n">
         <v>0.184722222222222232</v>
       </c>
       <c r="G16" s="4"/>
@@ -3241,23 +3548,23 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="114">
         <f>VLOOKUP(A17,$M$4:$N$20,2,0)</f>
         <v>44436</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="28" t="n">
+      <c r="E17" s="117" t="n">
         <v>4</v>
       </c>
-      <c r="F17" s="29" t="n">
+      <c r="F17" s="118" t="n">
         <v>0.373611111111111116</v>
       </c>
       <c r="G17" s="4"/>
@@ -3282,23 +3589,23 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="114">
         <f>VLOOKUP(A18,$M$4:$N$20,2,0)</f>
         <v>44436</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="28" t="n">
+      <c r="E18" s="117" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="29" t="n">
+      <c r="F18" s="118" t="n">
         <v>0.250694444444444509</v>
       </c>
       <c r="G18" s="4"/>
@@ -3319,23 +3626,23 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="114">
         <f>VLOOKUP(A19,$M$4:$N$20,2,0)</f>
         <v>44436</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="28" t="n">
+      <c r="E19" s="117" t="n">
         <v>6</v>
       </c>
-      <c r="F19" s="29" t="n">
+      <c r="F19" s="118" t="n">
         <v>0.149305555555555554</v>
       </c>
       <c r="G19" s="4"/>
@@ -3362,23 +3669,23 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="114">
         <f>VLOOKUP(A20,$M$4:$N$20,2,0)</f>
         <v>44436</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="28" t="n">
+      <c r="E20" s="117" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="29" t="n">
+      <c r="F20" s="118" t="n">
         <v>0.213888888888888928</v>
       </c>
       <c r="G20" s="19"/>
@@ -3405,23 +3712,23 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="114">
         <f>VLOOKUP(A21,$M$4:$N$20,2,0)</f>
         <v>44436</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="28" t="n">
+      <c r="E21" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="29" t="n">
+      <c r="F21" s="118" t="n">
         <v>0.264583333333333348</v>
       </c>
       <c r="G21" s="4"/>
@@ -3448,23 +3755,23 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="114">
         <f>VLOOKUP(A22,$M$4:$N$20,2,0)</f>
         <v>44436</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="28" t="n">
+      <c r="E22" s="117" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="29" t="n">
+      <c r="F22" s="118" t="n">
         <v>0.144444444444444464</v>
       </c>
       <c r="G22" s="4"/>
@@ -3474,23 +3781,23 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="114">
         <f>VLOOKUP(A23,$M$4:$N$20,2,0)</f>
         <v>44436</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="28" t="n">
+      <c r="E23" s="117" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="29" t="n">
+      <c r="F23" s="118" t="n">
         <v>0.420833333333333215</v>
       </c>
       <c r="G23" s="4"/>
@@ -3500,24 +3807,24 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="114">
         <f>VLOOKUP(A24,$M$4:$N$20,2,0)</f>
         <v>44436</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="28" t="n">
+      <c r="E24" s="117" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="29" t="n">
-        <v>0.374305555555555447</v>
+      <c r="F24" s="118" t="n">
+        <v>0.374305555555555358</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
@@ -3526,23 +3833,23 @@
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="114">
         <f>VLOOKUP(A25,$M$4:$N$20,2,0)</f>
         <v>44436</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="28" t="n">
+      <c r="E25" s="117" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="29" t="n">
+      <c r="F25" s="118" t="n">
         <v>0.342361111111111116</v>
       </c>
       <c r="G25" s="4"/>
@@ -3552,23 +3859,23 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="114">
         <f>VLOOKUP(A26,$M$4:$N$20,2,0)</f>
         <v>44436</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="28" t="n">
+      <c r="E26" s="117" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="29" t="n">
+      <c r="F26" s="118" t="n">
         <v>0.123611111111111116</v>
       </c>
       <c r="G26" s="4"/>
@@ -3578,23 +3885,23 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="114">
         <f>VLOOKUP(A27,$M$4:$N$20,2,0)</f>
         <v>44436</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="28" t="n">
+      <c r="E27" s="117" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="29" t="n">
+      <c r="F27" s="118" t="n">
         <v>0.248611111111111116</v>
       </c>
       <c r="G27" s="4"/>
@@ -3604,23 +3911,23 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="114">
         <f>VLOOKUP(A28,$M$4:$N$20,2,0)</f>
         <v>44436</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="28" t="n">
+      <c r="E28" s="117" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="29" t="n">
+      <c r="F28" s="118" t="n">
         <v>0.247222222222222232</v>
       </c>
       <c r="G28" s="4"/>
@@ -3630,23 +3937,23 @@
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="114">
         <f>VLOOKUP(A29,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="28" t="n">
+      <c r="E29" s="117" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="29" t="n">
+      <c r="F29" s="118" t="n">
         <v>0.298611111111111107</v>
       </c>
       <c r="G29" s="4"/>
@@ -3656,24 +3963,24 @@
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="114">
         <f>VLOOKUP(A30,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="28" t="n">
+      <c r="E30" s="117" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="29" t="n">
-        <v>0.269444444444444375</v>
+      <c r="F30" s="118" t="n">
+        <v>0.26944444444444442</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="3"/>
@@ -3682,23 +3989,23 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="114">
         <f>VLOOKUP(A31,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="28" t="n">
+      <c r="E31" s="117" t="n">
         <v>12</v>
       </c>
-      <c r="F31" s="29" t="n">
+      <c r="F31" s="118" t="n">
         <v>0.170833333333333304</v>
       </c>
       <c r="G31" s="4"/>
@@ -3708,23 +4015,23 @@
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="114">
         <f>VLOOKUP(A32,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="28" t="n">
+      <c r="E32" s="117" t="n">
         <v>13</v>
       </c>
-      <c r="F32" s="29" t="n">
+      <c r="F32" s="118" t="n">
         <v>0.111111111111111116</v>
       </c>
       <c r="G32" s="4"/>
@@ -3734,23 +4041,23 @@
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="114">
         <f>VLOOKUP(A33,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="28" t="n">
+      <c r="E33" s="117" t="n">
         <v>14</v>
       </c>
-      <c r="F33" s="29" t="n">
+      <c r="F33" s="118" t="n">
         <v>0.17013888888888884</v>
       </c>
       <c r="G33" s="4"/>
@@ -3760,23 +4067,23 @@
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="114">
         <f>VLOOKUP(A34,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="28" t="n">
+      <c r="E34" s="117" t="n">
         <v>15</v>
       </c>
-      <c r="F34" s="29" t="n">
+      <c r="F34" s="118" t="n">
         <v>0.209722222222222232</v>
       </c>
       <c r="G34" s="4"/>
@@ -3786,23 +4093,23 @@
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="114">
         <f>VLOOKUP(A35,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="28" t="n">
+      <c r="E35" s="117" t="n">
         <v>1</v>
       </c>
-      <c r="F35" s="29" t="n">
+      <c r="F35" s="118" t="n">
         <v>0.229861111111111116</v>
       </c>
       <c r="G35" s="4"/>
@@ -3812,23 +4119,23 @@
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="114">
         <f>VLOOKUP(A36,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="28" t="n">
+      <c r="E36" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="F36" s="29" t="n">
+      <c r="F36" s="118" t="n">
         <v>0.425694444444444464</v>
       </c>
       <c r="G36" s="4"/>
@@ -3838,23 +4145,23 @@
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="114">
         <f>VLOOKUP(A37,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="28" t="n">
+      <c r="E37" s="117" t="n">
         <v>3</v>
       </c>
-      <c r="F37" s="29" t="n">
+      <c r="F37" s="118" t="n">
         <v>0.131944444444444442</v>
       </c>
       <c r="G37" s="4"/>
@@ -3864,23 +4171,23 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="114">
         <f>VLOOKUP(A38,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="28" t="n">
+      <c r="E38" s="117" t="n">
         <v>4</v>
       </c>
-      <c r="F38" s="29" t="n">
+      <c r="F38" s="118" t="n">
         <v>0.197916666666666625</v>
       </c>
       <c r="G38" s="4"/>
@@ -3890,23 +4197,23 @@
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="114">
         <f>VLOOKUP(A39,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="28" t="n">
+      <c r="E39" s="117" t="n">
         <v>5</v>
       </c>
-      <c r="F39" s="29" t="n">
+      <c r="F39" s="118" t="n">
         <v>0.322916666666666696</v>
       </c>
       <c r="G39" s="4"/>
@@ -3916,23 +4223,23 @@
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="114">
         <f>VLOOKUP(A40,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="28" t="n">
+      <c r="E40" s="117" t="n">
         <v>6</v>
       </c>
-      <c r="F40" s="29" t="n">
+      <c r="F40" s="118" t="n">
         <v>0.352777777777777812</v>
       </c>
       <c r="G40" s="4"/>
@@ -3942,23 +4249,23 @@
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="114">
         <f>VLOOKUP(A41,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="28" t="n">
+      <c r="E41" s="117" t="n">
         <v>7</v>
       </c>
-      <c r="F41" s="29" t="n">
+      <c r="F41" s="118" t="n">
         <v>0.0708333333333333215</v>
       </c>
       <c r="G41" s="4"/>
@@ -3968,23 +4275,23 @@
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="114">
         <f>VLOOKUP(A42,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="28" t="n">
+      <c r="E42" s="117" t="n">
         <v>8</v>
       </c>
-      <c r="F42" s="29" t="n">
+      <c r="F42" s="118" t="n">
         <v>0.156944444444444446</v>
       </c>
       <c r="G42" s="4"/>
@@ -3994,23 +4301,23 @@
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="114">
         <f>VLOOKUP(A43,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="28" t="n">
+      <c r="E43" s="117" t="n">
         <v>9</v>
       </c>
-      <c r="F43" s="29" t="n">
+      <c r="F43" s="118" t="n">
         <v>0.198611111111111072</v>
       </c>
       <c r="G43" s="4"/>
@@ -4020,23 +4327,23 @@
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B44" s="114">
         <f>VLOOKUP(A44,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="28" t="n">
+      <c r="E44" s="117" t="n">
         <v>10</v>
       </c>
-      <c r="F44" s="29" t="n">
+      <c r="F44" s="118" t="n">
         <v>0.25555555555555558</v>
       </c>
       <c r="G44" s="4"/>
@@ -4046,23 +4353,23 @@
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="32">
+      <c r="B45" s="120">
         <f>VLOOKUP(A45,$M$4:$N$20,2,0)</f>
         <v>44443</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="35" t="n">
+      <c r="E45" s="123" t="n">
         <v>11</v>
       </c>
-      <c r="F45" s="36" t="n">
+      <c r="F45" s="124" t="n">
         <v>0.303472222222222143</v>
       </c>
       <c r="G45" s="4"/>
@@ -4072,23 +4379,23 @@
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="108">
         <f>VLOOKUP(A46,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="17" t="n">
+      <c r="E46" s="111" t="n">
         <v>1</v>
       </c>
-      <c r="F46" s="18" t="n">
+      <c r="F46" s="112" t="n">
         <v>0.186805555555555571</v>
       </c>
       <c r="G46" s="19"/>
@@ -4098,23 +4405,23 @@
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47" s="114">
         <f>VLOOKUP(A47,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="28" t="n">
+      <c r="E47" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="F47" s="29" t="n">
+      <c r="F47" s="118" t="n">
         <v>0.3</v>
       </c>
       <c r="G47" s="4"/>
@@ -4124,23 +4431,23 @@
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="25">
+      <c r="B48" s="114">
         <f>VLOOKUP(A48,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="28" t="n">
+      <c r="E48" s="117" t="n">
         <v>1</v>
       </c>
-      <c r="F48" s="29" t="n">
+      <c r="F48" s="118" t="n">
         <v>0.221527777777777768</v>
       </c>
       <c r="G48" s="4"/>
@@ -4150,23 +4457,23 @@
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B49" s="114">
         <f>VLOOKUP(A49,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="28" t="n">
+      <c r="E49" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="F49" s="29" t="n">
+      <c r="F49" s="118" t="n">
         <v>0.168055555555555518</v>
       </c>
       <c r="G49" s="4"/>
@@ -4176,23 +4483,23 @@
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="25">
+      <c r="B50" s="114">
         <f>VLOOKUP(A50,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="28" t="n">
+      <c r="E50" s="117" t="n">
         <v>3</v>
       </c>
-      <c r="F50" s="29" t="n">
+      <c r="F50" s="118" t="n">
         <v>0.418055555555555536</v>
       </c>
       <c r="G50" s="4"/>
@@ -4202,23 +4509,23 @@
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="114">
         <f>VLOOKUP(A51,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="28" t="n">
+      <c r="E51" s="117" t="n">
         <v>4</v>
       </c>
-      <c r="F51" s="29" t="n">
+      <c r="F51" s="118" t="n">
         <v>0.169444444444444464</v>
       </c>
       <c r="G51" s="4"/>
@@ -4228,23 +4535,23 @@
       <c r="K51" s="3"/>
     </row>
     <row r="52" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="114">
         <f>VLOOKUP(A52,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="28" t="n">
+      <c r="E52" s="117" t="n">
         <v>5</v>
       </c>
-      <c r="F52" s="29" t="n">
+      <c r="F52" s="118" t="n">
         <v>0.222916666666666607</v>
       </c>
       <c r="G52" s="4"/>
@@ -4254,23 +4561,23 @@
       <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B53" s="114">
         <f>VLOOKUP(A53,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="28" t="n">
+      <c r="E53" s="117" t="n">
         <v>6</v>
       </c>
-      <c r="F53" s="29" t="n">
+      <c r="F53" s="118" t="n">
         <v>0.177083333333333348</v>
       </c>
       <c r="G53" s="4"/>
@@ -4280,23 +4587,23 @@
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="25">
+      <c r="B54" s="114">
         <f>VLOOKUP(A54,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="28" t="n">
+      <c r="E54" s="117" t="n">
         <v>7</v>
       </c>
-      <c r="F54" s="29" t="n">
+      <c r="F54" s="118" t="n">
         <v>0.28888888888888884</v>
       </c>
       <c r="G54" s="4"/>
@@ -4306,23 +4613,23 @@
       <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="25">
+      <c r="B55" s="114">
         <f>VLOOKUP(A55,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="28" t="n">
+      <c r="E55" s="117" t="n">
         <v>8</v>
       </c>
-      <c r="F55" s="29" t="n">
+      <c r="F55" s="118" t="n">
         <v>0.199305555555555607</v>
       </c>
       <c r="G55" s="4"/>
@@ -4332,23 +4639,23 @@
       <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="25">
+      <c r="B56" s="114">
         <f>VLOOKUP(A56,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="28" t="n">
+      <c r="E56" s="117" t="n">
         <v>9</v>
       </c>
-      <c r="F56" s="29" t="n">
+      <c r="F56" s="118" t="n">
         <v>0.215277777777777768</v>
       </c>
       <c r="G56" s="4"/>
@@ -4358,23 +4665,23 @@
       <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B57" s="114">
         <f>VLOOKUP(A57,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="E57" s="28" t="n">
+      <c r="E57" s="117" t="n">
         <v>1</v>
       </c>
-      <c r="F57" s="29" t="n">
+      <c r="F57" s="118" t="n">
         <v>0.446527777777777768</v>
       </c>
       <c r="G57" s="4"/>
@@ -4384,23 +4691,23 @@
       <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="25">
+      <c r="B58" s="114">
         <f>VLOOKUP(A58,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="28" t="n">
+      <c r="E58" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="F58" s="29" t="n">
+      <c r="F58" s="118" t="n">
         <v>0.285416666666666607</v>
       </c>
       <c r="G58" s="4"/>
@@ -4410,23 +4717,23 @@
       <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="25">
+      <c r="B59" s="114">
         <f>VLOOKUP(A59,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="E59" s="28" t="n">
+      <c r="E59" s="117" t="n">
         <v>3</v>
       </c>
-      <c r="F59" s="29" t="n">
+      <c r="F59" s="118" t="n">
         <v>0.190972222222222214</v>
       </c>
       <c r="G59" s="4"/>
@@ -4436,23 +4743,23 @@
       <c r="K59" s="3"/>
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="25">
+      <c r="B60" s="114">
         <f>VLOOKUP(A60,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="E60" s="28" t="n">
+      <c r="E60" s="117" t="n">
         <v>4</v>
       </c>
-      <c r="F60" s="29" t="n">
+      <c r="F60" s="118" t="n">
         <v>0.190277777777777768</v>
       </c>
       <c r="G60" s="4"/>
@@ -4462,23 +4769,23 @@
       <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="114">
         <f>VLOOKUP(A61,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="E61" s="28" t="n">
+      <c r="E61" s="117" t="n">
         <v>5</v>
       </c>
-      <c r="F61" s="29" t="n">
+      <c r="F61" s="118" t="n">
         <v>0.220138888888888884</v>
       </c>
       <c r="G61" s="4"/>
@@ -4488,23 +4795,23 @@
       <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B62" s="114">
         <f>VLOOKUP(A62,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="E62" s="28" t="n">
+      <c r="E62" s="117" t="n">
         <v>6</v>
       </c>
-      <c r="F62" s="29" t="n">
+      <c r="F62" s="118" t="n">
         <v>0.30625</v>
       </c>
       <c r="G62" s="4"/>
@@ -4514,23 +4821,23 @@
       <c r="K62" s="3"/>
     </row>
     <row r="63" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="25">
+      <c r="B63" s="114">
         <f>VLOOKUP(A63,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="E63" s="28" t="n">
+      <c r="E63" s="117" t="n">
         <v>7</v>
       </c>
-      <c r="F63" s="29" t="n">
+      <c r="F63" s="118" t="n">
         <v>0.174305555555555518</v>
       </c>
       <c r="G63" s="4"/>
@@ -4540,23 +4847,23 @@
       <c r="K63" s="3"/>
     </row>
     <row r="64" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="25">
+      <c r="B64" s="114">
         <f>VLOOKUP(A64,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="E64" s="28" t="n">
+      <c r="E64" s="117" t="n">
         <v>8</v>
       </c>
-      <c r="F64" s="29" t="n">
+      <c r="F64" s="118" t="n">
         <v>0.131944444444444442</v>
       </c>
       <c r="G64" s="4"/>
@@ -4566,23 +4873,23 @@
       <c r="K64" s="3"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="25">
+      <c r="B65" s="114">
         <f>VLOOKUP(A65,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="E65" s="28" t="n">
+      <c r="E65" s="117" t="n">
         <v>9</v>
       </c>
-      <c r="F65" s="29" t="n">
+      <c r="F65" s="118" t="n">
         <v>0.14097222222222225</v>
       </c>
       <c r="G65" s="4"/>
@@ -4592,23 +4899,23 @@
       <c r="K65" s="3"/>
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="32">
+      <c r="B66" s="120">
         <f>VLOOKUP(A66,$M$4:$N$20,2,0)</f>
         <v>44450</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="34" t="s">
+      <c r="D66" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="E66" s="35" t="n">
+      <c r="E66" s="123" t="n">
         <v>10</v>
       </c>
-      <c r="F66" s="36" t="n">
+      <c r="F66" s="124" t="n">
         <v>0.211111111111111116</v>
       </c>
       <c r="G66" s="4"/>
@@ -4618,23 +4925,23 @@
       <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="108">
         <f>VLOOKUP(A67,$M$4:$N$20,2,0)</f>
         <v>44457</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="E67" s="17" t="n">
+      <c r="E67" s="111" t="n">
         <v>1</v>
       </c>
-      <c r="F67" s="18" t="n">
+      <c r="F67" s="112" t="n">
         <v>0.252777777777777768</v>
       </c>
       <c r="G67" s="19"/>
@@ -4644,23 +4951,23 @@
       <c r="K67" s="3"/>
     </row>
     <row r="68" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="25">
+      <c r="B68" s="114">
         <f>VLOOKUP(A68,$M$4:$N$20,2,0)</f>
         <v>44457</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="E68" s="28" t="n">
+      <c r="E68" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="F68" s="29" t="n">
+      <c r="F68" s="118" t="n">
         <v>0.434722222222222232</v>
       </c>
       <c r="G68" s="4"/>
@@ -4670,23 +4977,23 @@
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="25">
+      <c r="B69" s="114">
         <f>VLOOKUP(A69,$M$4:$N$20,2,0)</f>
         <v>44457</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="E69" s="28" t="n">
+      <c r="E69" s="117" t="n">
         <v>3</v>
       </c>
-      <c r="F69" s="29" t="n">
+      <c r="F69" s="118" t="n">
         <v>0.45625</v>
       </c>
       <c r="G69" s="4"/>
@@ -4973,7 +5280,7 @@
         <v>7</v>
       </c>
       <c r="F80" s="36" t="n">
-        <v>0.300694444444444375</v>
+        <v>0.30069444444444442</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="3"/>
@@ -5181,7 +5488,7 @@
         <v>6</v>
       </c>
       <c r="F88" s="29" t="n">
-        <v>0.365972222222222143</v>
+        <v>0.365972222222222099</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="3"/>
@@ -5623,7 +5930,7 @@
         <v>12</v>
       </c>
       <c r="F105" s="29" t="n">
-        <v>0.485416666666666607</v>
+        <v>0.485416666666666519</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="3"/>
@@ -5701,7 +6008,7 @@
         <v>15</v>
       </c>
       <c r="F108" s="29" t="n">
-        <v>0.269444444444444375</v>
+        <v>0.26944444444444442</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="3"/>
@@ -6091,7 +6398,7 @@
         <v>3</v>
       </c>
       <c r="F123" s="29" t="n">
-        <v>0.38333333333333325</v>
+        <v>0.383333333333333304</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="3"/>
@@ -6351,7 +6658,7 @@
         <v>3</v>
       </c>
       <c r="F133" s="29" t="n">
-        <v>0.26180555555555558</v>
+        <v>0.261805555555555625</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="3"/>
@@ -6819,7 +7126,7 @@
         <v>1</v>
       </c>
       <c r="F151" s="18" t="n">
-        <v>0.28333333333333325</v>
+        <v>0.283333333333333215</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="3"/>
@@ -7131,7 +7438,7 @@
         <v>13</v>
       </c>
       <c r="F163" s="29" t="n">
-        <v>0.111805555555555536</v>
+        <v>0.111805555555555514</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="3"/>
@@ -7443,7 +7750,7 @@
         <v>10</v>
       </c>
       <c r="F175" s="29" t="n">
-        <v>0.0736111111111110805</v>
+        <v>0.0736111111111110716</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="3"/>
@@ -8893,7 +9200,7 @@
         <v>17</v>
       </c>
       <c r="F231" s="29" t="n">
-        <v>0.10277777777777779</v>
+        <v>0.102777777777777812</v>
       </c>
       <c r="G231" s="59"/>
       <c r="H231" s="3"/>
@@ -9023,7 +9330,7 @@
         <v>22</v>
       </c>
       <c r="F236" s="29" t="n">
-        <v>0.320833333333333304</v>
+        <v>0.320833333333333259</v>
       </c>
       <c r="G236" s="59"/>
       <c r="H236" s="3"/>
@@ -9257,7 +9564,7 @@
         <v>5</v>
       </c>
       <c r="F245" s="29" t="n">
-        <v>0.289583333333333304</v>
+        <v>0.28958333333333325</v>
       </c>
       <c r="G245" s="59"/>
       <c r="H245" s="3"/>
@@ -11941,7 +12248,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1633297031" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1633724892" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -11950,14 +12257,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1633297031" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1633297031" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1633724892" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1633724892" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1633297031" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1633724892" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -11970,7 +12277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E998"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+    <sheetView view="normal" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -12001,7 +12308,7 @@
     <row r="3" spans="1:1" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="13.90">
+    <row r="4" spans="1:5" ht="13.90" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="106" t="s">
         <v>2</v>
@@ -13323,7 +13630,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1633297031" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1633724892" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -13332,14 +13639,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1633297031" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1633297031" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1633724892" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1633724892" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1633297031" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1633724892" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
